--- a/Web/wwwroot/Files/Template/Karkard_temp.xlsx
+++ b/Web/wwwroot/Files/Template/Karkard_temp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Kosha\Project\Salary Managment\SalaryManagment\Web\wwwroot\Files\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BDBEC05-2265-417E-8261-DD29244556B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC7947BC-4270-45D7-92DF-5028F649E902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,16 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$W$2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>رديف</t>
   </si>
@@ -53,15 +55,9 @@
     <t>كاركرد به روز</t>
   </si>
   <si>
-    <t>اضافه كاري(ساعت)</t>
-  </si>
-  <si>
     <t>شبکاری(ساعت)</t>
   </si>
   <si>
-    <t>ماموریت(روز)</t>
-  </si>
-  <si>
     <t>کد ملی</t>
   </si>
   <si>
@@ -77,38 +73,173 @@
     <t>غیبت</t>
   </si>
   <si>
-    <t>0012345678</t>
-  </si>
-  <si>
-    <t>0012345679</t>
-  </si>
-  <si>
-    <t>مرتضی</t>
-  </si>
-  <si>
-    <t>مظفری</t>
-  </si>
-  <si>
-    <t>لیلا</t>
-  </si>
-  <si>
-    <t>قائدی</t>
-  </si>
-  <si>
-    <t>0012345680</t>
-  </si>
-  <si>
-    <t>محمد</t>
-  </si>
-  <si>
-    <t>منفرد</t>
+    <t>سایر کسورات</t>
+  </si>
+  <si>
+    <t>علی الحساب</t>
+  </si>
+  <si>
+    <t>مساعده</t>
+  </si>
+  <si>
+    <t>کشیک</t>
+  </si>
+  <si>
+    <t>کارایی</t>
+  </si>
+  <si>
+    <t>سایر(مشمول بیمه و مالیات)</t>
+  </si>
+  <si>
+    <t>سایر(مشمول بیمه و غیر مشمول مالیات)</t>
+  </si>
+  <si>
+    <t>سایر(غیر مشمول بیمه و مالیات)</t>
+  </si>
+  <si>
+    <t>سایر(مشمول مالیات و غیر مشمول بیمه)</t>
+  </si>
+  <si>
+    <t>بیمه تکمیلی سرپرست</t>
+  </si>
+  <si>
+    <t>بیمه تکمیلی تکفل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">وام </t>
+  </si>
+  <si>
+    <t xml:space="preserve">هزینه غذا </t>
+  </si>
+  <si>
+    <t xml:space="preserve">پاداش </t>
+  </si>
+  <si>
+    <t>اضافه کاری ثابت (ساعت )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هزینه لباس </t>
+  </si>
+  <si>
+    <t>درصد نوبتکاری</t>
+  </si>
+  <si>
+    <t>محل خدمت</t>
+  </si>
+  <si>
+    <t>استان خدمت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ماموریت </t>
+  </si>
+  <si>
+    <t>اضافه كاري(عادی)</t>
+  </si>
+  <si>
+    <t>اضافه کاری ثابت (مبلغ)</t>
+  </si>
+  <si>
+    <t>تعطیل کاری ثابت (مبلغ)</t>
+  </si>
+  <si>
+    <t>کارکرد ایاب و ذهاب (روز)</t>
+  </si>
+  <si>
+    <t>هزینه ایاب و ذهاب (ثابت)</t>
+  </si>
+  <si>
+    <t>هزینه ایاب و ذهاب روزانه (بر اساس استان)</t>
+  </si>
+  <si>
+    <t>جمعه کاری (روز)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کارکرد شیفت </t>
+  </si>
+  <si>
+    <t>هزینه رفاهیات (ثابت)</t>
+  </si>
+  <si>
+    <t>کسورات حکم قضایی</t>
+  </si>
+  <si>
+    <t>کسورات تخلفات</t>
+  </si>
+  <si>
+    <t>سایر مزایا 1</t>
+  </si>
+  <si>
+    <t>سایر مزایا 2</t>
+  </si>
+  <si>
+    <t>سایر مزایا 3</t>
+  </si>
+  <si>
+    <t>سایر مزایا 4</t>
+  </si>
+  <si>
+    <t>سایر مزایا 5</t>
+  </si>
+  <si>
+    <t>سایر مزایا 6</t>
+  </si>
+  <si>
+    <t>سایر مزایا 7</t>
+  </si>
+  <si>
+    <t>سایر مزایا 8</t>
+  </si>
+  <si>
+    <t>سایر مزایا 9</t>
+  </si>
+  <si>
+    <t>سایر مزایا 10</t>
+  </si>
+  <si>
+    <t>سایر کسورات 1</t>
+  </si>
+  <si>
+    <t>سایر کسورات 2</t>
+  </si>
+  <si>
+    <t>سایر کسورات 3</t>
+  </si>
+  <si>
+    <t>سایر کسورات 4</t>
+  </si>
+  <si>
+    <t>سایر کسورات 5</t>
+  </si>
+  <si>
+    <t>سایر کسورات 6</t>
+  </si>
+  <si>
+    <t>سایر کسورات 7</t>
+  </si>
+  <si>
+    <t>سایر کسورات 8</t>
+  </si>
+  <si>
+    <t>سایر کسورات 9</t>
+  </si>
+  <si>
+    <t>سایر کسورات 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بهنام </t>
+  </si>
+  <si>
+    <t>جبارزاده</t>
+  </si>
+  <si>
+    <t>0312468105</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,13 +247,6 @@
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="B Nazanin"/>
-      <charset val="178"/>
     </font>
     <font>
       <b/>
@@ -138,8 +262,19 @@
       <charset val="178"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="B Nazanin"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212529"/>
+      <name val="Vazir"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -148,12 +283,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -176,55 +329,49 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -232,6 +379,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF99FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -564,213 +716,280 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:BK2"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.88671875" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" style="16"/>
+    <col min="3" max="7" width="14.88671875" style="1"/>
+    <col min="8" max="8" width="14.88671875" style="2"/>
+    <col min="9" max="10" width="14.88671875" style="1"/>
+    <col min="11" max="19" width="14.88671875" style="2"/>
+    <col min="20" max="26" width="14.88671875" style="1"/>
+    <col min="27" max="27" width="14.88671875" style="2"/>
+    <col min="28" max="29" width="14.88671875" style="1"/>
+    <col min="30" max="34" width="14.88671875" style="2"/>
+    <col min="35" max="36" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="9.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="46" max="48" width="14.88671875" style="2"/>
+    <col min="49" max="51" width="14.88671875" style="1"/>
+    <col min="52" max="52" width="13.44140625" style="1" customWidth="1"/>
+    <col min="53" max="53" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="58" width="11.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="11.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="13.77734375" style="1" customWidth="1"/>
+    <col min="64" max="16384" width="14.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:63" s="7" customFormat="1" ht="51" customHeight="1">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="U1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="V1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK1" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM1" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP1" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AQ1" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR1" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AV1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="AW1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="AX1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY1" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AZ1" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="BA1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="BB1" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:63" ht="18" customHeight="1">
+      <c r="A2" s="1">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="8" t="s">
+      <c r="B2" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="1">
+        <v>31</v>
+      </c>
+      <c r="I2" s="1">
+        <v>120</v>
+      </c>
+      <c r="K2" s="2">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="1">
-        <v>30</v>
-      </c>
-      <c r="F2" s="4">
-        <v>90</v>
-      </c>
-      <c r="G2" s="4">
-        <v>32</v>
-      </c>
-      <c r="H2" s="4">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3">
-        <v>0.35</v>
-      </c>
-      <c r="J2" s="4">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2">
-        <v>1</v>
-      </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="1">
-        <v>20</v>
-      </c>
-      <c r="F3" s="4">
-        <v>5</v>
-      </c>
-      <c r="G3" s="4">
+      <c r="L2" s="2">
         <v>10</v>
       </c>
-      <c r="H3" s="4">
-        <v>2</v>
-      </c>
-      <c r="I3" s="3">
-        <v>0.35</v>
-      </c>
-      <c r="J3" s="4">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2">
-        <v>1</v>
-      </c>
-      <c r="L3" s="1">
-        <v>1</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0</v>
-      </c>
-      <c r="N3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="1">
-        <v>15</v>
-      </c>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0.35</v>
-      </c>
-      <c r="J4" s="4">
-        <v>1</v>
-      </c>
-      <c r="K4" s="2">
-        <v>1</v>
-      </c>
-      <c r="L4" s="1">
-        <v>0</v>
-      </c>
-      <c r="M4" s="1">
-        <v>1</v>
-      </c>
-      <c r="N4" s="1">
-        <v>0</v>
+      <c r="P2" s="2">
+        <v>500</v>
+      </c>
+      <c r="T2" s="1">
+        <v>10</v>
+      </c>
+      <c r="BK2" s="1">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N4" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <autoFilter ref="A1:W2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.35433070866141736" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="B2:B4" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/Web/wwwroot/Files/Template/Karkard_temp.xlsx
+++ b/Web/wwwroot/Files/Template/Karkard_temp.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Kosha\Project\Salary Managment\SalaryManagment\Web\wwwroot\Files\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erfan Shayegh\source\repos\IEfiwm\SalaryManagment\Web\wwwroot\Files\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC7947BC-4270-45D7-92DF-5028F649E902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$W$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>رديف</t>
   </si>
@@ -73,9 +72,6 @@
     <t>غیبت</t>
   </si>
   <si>
-    <t>سایر کسورات</t>
-  </si>
-  <si>
     <t>علی الحساب</t>
   </si>
   <si>
@@ -233,13 +229,22 @@
   </si>
   <si>
     <t>0312468105</t>
+  </si>
+  <si>
+    <t>بیمه عمر</t>
+  </si>
+  <si>
+    <t>بیمه عمر و حوادث</t>
+  </si>
+  <si>
+    <t>بیمه تکمیلی ماه معوقه</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -372,6 +377,9 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -471,23 +479,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -523,23 +514,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -715,14 +689,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BK2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BM2"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="AV1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AZ1" sqref="AZ1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.88671875" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.88671875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.88671875" style="16"/>
@@ -759,7 +733,7 @@
     <col min="64" max="16384" width="14.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" s="7" customFormat="1" ht="51" customHeight="1">
+    <row r="1" spans="1:65" s="7" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -773,22 +747,22 @@
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>4</v>
@@ -800,22 +774,22 @@
         <v>3</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T1" s="5" t="s">
         <v>8</v>
@@ -830,138 +804,144 @@
         <v>11</v>
       </c>
       <c r="X1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="Y1" s="8" t="s">
-        <v>34</v>
-      </c>
       <c r="Z1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AE1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AI1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ1" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL1" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN1" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ1" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR1" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS1" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AU1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AX1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="AY1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="AD1" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE1" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF1" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG1" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH1" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="AJ1" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK1" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AL1" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AM1" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="AN1" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="AO1" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="AP1" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="AQ1" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="AR1" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AS1" s="9" t="s">
+      <c r="AZ1" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="BA1" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="BB1" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AT1" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AU1" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="AV1" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="AW1" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="AX1" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="AY1" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="AZ1" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="BA1" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="BB1" s="10" t="s">
+      <c r="BC1" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="10" t="s">
+      <c r="BD1" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="10" t="s">
+      <c r="BE1" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="10" t="s">
+      <c r="BF1" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="10" t="s">
+      <c r="BG1" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="10" t="s">
+      <c r="BH1" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="10" t="s">
+      <c r="BI1" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="10" t="s">
+      <c r="BJ1" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="10" t="s">
+      <c r="BK1" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="10" t="s">
-        <v>62</v>
+      <c r="BL1" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM1" s="17" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:63" ht="18" customHeight="1">
+    <row r="2" spans="1:65" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>2</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C2" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="G2" s="1">
         <v>31</v>
@@ -986,7 +966,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:W2"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.35433070866141736" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Web/wwwroot/Files/Template/Karkard_temp.xlsx
+++ b/Web/wwwroot/Files/Template/Karkard_temp.xlsx
@@ -231,13 +231,13 @@
     <t>0312468105</t>
   </si>
   <si>
-    <t>بیمه عمر</t>
-  </si>
-  <si>
     <t>بیمه عمر و حوادث</t>
   </si>
   <si>
     <t>بیمه تکمیلی ماه معوقه</t>
+  </si>
+  <si>
+    <t>سایر کسورات</t>
   </si>
 </sst>
 </file>
@@ -693,7 +693,7 @@
   <dimension ref="A1:BM2"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="AV1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AZ1" sqref="AZ1"/>
+      <selection activeCell="BA1" sqref="BA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.88671875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -891,7 +891,7 @@
         <v>41</v>
       </c>
       <c r="BA1" s="10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="BB1" s="10" t="s">
         <v>52</v>
@@ -924,10 +924,10 @@
         <v>61</v>
       </c>
       <c r="BL1" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="BM1" s="17" t="s">
         <v>66</v>
-      </c>
-      <c r="BM1" s="17" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:65" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
